--- a/辅助表/理想状态的数值结构.xlsx
+++ b/辅助表/理想状态的数值结构.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="32500" yWindow="1760" windowWidth="33600" windowHeight="19800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>属性分类</t>
     <rPh sb="0" eb="1">
@@ -1147,7 +1147,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相应的单一属性</t>
+    <t>洗练</t>
+    <rPh sb="0" eb="1">
+      <t>xi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练怎么洗？</t>
+    <rPh sb="0" eb="1">
+      <t>xi'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>z'm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练，我希望洗练到一定次数后出现新的属性</t>
+    <rPh sb="0" eb="1">
+      <t>xi'lian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi'w</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi'l</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'ding</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ci'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>d</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shu'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备相应的属性</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'ying</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <rPh sb="0" eb="1">
+      <t>deng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶等比公式</t>
+    <rPh sb="0" eb="1">
+      <t>er</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jie'duan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'bi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量，防御</t>
+    <rPh sb="0" eb="1">
+      <t>xue'l</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击，速度</t>
+    <rPh sb="0" eb="1">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>su'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性比例</t>
+    <rPh sb="0" eb="1">
+      <t>shu'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级成长0.1倍</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这2个属性不够。。</t>
+    <rPh sb="0" eb="1">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相应的属性</t>
     <rPh sb="0" eb="1">
       <t>xiang'ying</t>
     </rPh>
@@ -1155,109 +1321,28 @@
       <t>d</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>dan'yi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
       <t>shu'x</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗练</t>
-    <rPh sb="0" eb="1">
-      <t>xi'l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗练怎么洗？</t>
-    <rPh sb="0" eb="1">
-      <t>xi'l</t>
-    </rPh>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <rPh sb="0" eb="1">
+      <t>min'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%的防御</t>
     <rPh sb="2" eb="3">
-      <t>z'm</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗练，我希望洗练到一定次数后出现新的属性</t>
-    <rPh sb="0" eb="1">
-      <t>xi'lian</t>
+      <t>d</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xi'w</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xi'l</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yi'ding</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ci'shu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>chu'xian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>d</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>shu'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备相应的属性</t>
-    <rPh sb="0" eb="1">
-      <t>zhuang'b</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiang'ying</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <rPh sb="0" eb="1">
-      <t>deng'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二阶等比公式</t>
-    <rPh sb="0" eb="1">
-      <t>er</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jie'duan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>deng'bi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gong's</t>
+      <t>fang'y</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1266,6 +1351,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1309,9 +1397,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1324,6 +1413,3836 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表2!$F$2:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>属性比例</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表2!$E$4:$E$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表2!$F$4:$F$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>484.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>532.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>585.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>644.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>708.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>779.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>943.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1037.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1141.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1255.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1380.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1518.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1670.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1837.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2223.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2446.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2690.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2960.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3256.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3581.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3939.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4333.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4767.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5243.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5768.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6345.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6979.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7677.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8445.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9290.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10219.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11240.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12365.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13601.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14961.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16457.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18103.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19914.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21905.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24096.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26505.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29156.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32071.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35278.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38806.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42687.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46956.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51651.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56817.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62498.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>68748.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>75623.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>83186.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>91504.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100655.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>110720.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>121792.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>133971.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>147369.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>162106.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>178316.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>196148.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>215763.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>237339.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>261073.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>287180.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>315898.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>347488.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>382237.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>420461.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>462507.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>508758.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>559633.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>615597.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>677157.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>744872.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>819360.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>901296.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>991425.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.090568E6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.199625E6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.319587E6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.451546E6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.596701E6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.756371E6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.932008E6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.125209E6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.337729E6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.571502E6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.828653E6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.111518E6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.42267E6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.764937E6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.141431E6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.555574E6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.011131E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2090457616"/>
+        <c:axId val="-2090128560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2090457616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2090128560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2090128560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2090457616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表2!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>属性比例</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表2!$E$4:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表2!$F$4:$F$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>484.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>532.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>585.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>644.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>708.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>779.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>943.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1037.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1141.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1255.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1380.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1518.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1670.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1837.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2223.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2446.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2690.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2960.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3256.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3581.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3939.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4333.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4767.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5243.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5768.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6345.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6979.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7677.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8445.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9290.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10219.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11240.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12365.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13601.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14961.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16457.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18103.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19914.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21905.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24096.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26505.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29156.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32071.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35278.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38806.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42687.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46956.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51651.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56817.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62498.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>68748.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>75623.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>83186.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>91504.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100655.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>110720.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>121792.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>133971.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>147369.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>162106.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>178316.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>196148.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>215763.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>237339.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>261073.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>287180.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2041039088"/>
+        <c:axId val="-2091588016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2041039088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2091588016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2091588016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2041039088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表2!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>属性比例</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表2!$E$4:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表2!$F$4:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>484.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>532.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>585.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>644.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>708.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>779.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>943.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1037.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1141.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1255.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1380.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1518.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1670.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1837.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2223.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2446.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2690.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2960.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3256.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3581.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3939.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4333.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4767.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5243.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5768.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6345.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6979.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7677.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8445.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9290.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10219.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11240.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12365.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13601.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14961.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16457.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18103.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19914.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21905.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24096.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1149356176"/>
+        <c:axId val="-1037426992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1149356176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1037426992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1037426992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1149356176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1589,10 +5508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M50"/>
+  <dimension ref="B2:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1603,7 +5522,7 @@
     <col min="11" max="11" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +5539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>42</v>
       </c>
@@ -1640,7 +5559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -1651,13 +5570,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K6" t="s">
         <v>1</v>
       </c>
@@ -1665,7 +5587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -1678,6 +5600,9 @@
       <c r="G7" t="s">
         <v>67</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="K7" t="s">
         <v>2</v>
       </c>
@@ -1685,20 +5610,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="J8" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="K8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="M8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>6</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="K9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="M9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1711,22 +5651,28 @@
       <c r="G10" t="s">
         <v>69</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="K10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +5680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +5694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -1759,15 +5705,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="J15" t="s">
         <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -1776,6 +5722,12 @@
       </c>
       <c r="G16" t="s">
         <v>78</v>
+      </c>
+      <c r="M16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -1850,7 +5802,7 @@
         <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
@@ -1883,7 +5835,7 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
@@ -1894,7 +5846,7 @@
         <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
@@ -1985,10 +5937,10 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="J48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K48" t="s">
         <v>80</v>
-      </c>
-      <c r="K48" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.15">
@@ -1996,7 +5948,7 @@
         <v>66</v>
       </c>
       <c r="K50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2007,142 +5959,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F39"/>
+  <dimension ref="B2:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
         <f>INT(C$3*1.1^(E4-1))</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F39" si="0">INT(C$3*1.1^(E5-1))</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.15">
+        <f t="shared" ref="F5:F68" si="0">INT(C$3*1.1^(E5-1))</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.15">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.15">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.15">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.15">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E12">
         <v>9</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.15">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E14">
         <v>11</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.15">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
       <c r="E15">
         <v>12</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.15">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E16">
         <v>13</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.15">
@@ -2151,7 +6109,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.15">
@@ -2160,7 +6118,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>379</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.15">
@@ -2169,7 +6127,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.15">
@@ -2178,7 +6136,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>459</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.15">
@@ -2187,7 +6145,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>505</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.15">
@@ -2196,7 +6154,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>555</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.15">
@@ -2205,7 +6163,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>611</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.15">
@@ -2214,7 +6172,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>672</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.15">
@@ -2223,7 +6181,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>740</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.15">
@@ -2232,7 +6190,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>814</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.15">
@@ -2241,7 +6199,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>895</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.15">
@@ -2250,7 +6208,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>984</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.15">
@@ -2259,7 +6217,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>1083</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.15">
@@ -2268,7 +6226,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>1191</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.15">
@@ -2277,7 +6235,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>1310</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.15">
@@ -2286,7 +6244,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>1442</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.15">
@@ -2295,7 +6253,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>1586</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.15">
@@ -2304,7 +6262,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>1744</v>
+        <v>6979</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.15">
@@ -2313,7 +6271,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>1919</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.15">
@@ -2322,7 +6280,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>2111</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.15">
@@ -2331,7 +6289,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>2322</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.15">
@@ -2340,7 +6298,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>2554</v>
+        <v>10219</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.15">
@@ -2349,11 +6307,589 @@
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>2810</v>
+        <v>11240</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E40">
+        <v>37</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>12365</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E41">
+        <v>38</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>13601</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E42">
+        <v>39</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>14961</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>16457</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E44">
+        <v>41</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>18103</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E45">
+        <v>42</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>19914</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E46">
+        <v>43</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>21905</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E47">
+        <v>44</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>24096</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <v>45</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>26505</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <v>46</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>29156</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E50">
+        <v>47</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>32071</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E51">
+        <v>48</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>35278</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E52">
+        <v>49</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>38806</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>42687</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E54">
+        <v>51</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>46956</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E55">
+        <v>52</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>51651</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E56">
+        <v>53</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>56817</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E57">
+        <v>54</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>62498</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E58">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>68748</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E59">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>75623</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E60">
+        <v>57</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>83186</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E61">
+        <v>58</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>91504</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E62">
+        <v>59</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>100655</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E63">
+        <v>60</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>110720</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E64">
+        <v>61</v>
+      </c>
+      <c r="F64">
+        <f>INT(C$3*1.1^(E64-1))</f>
+        <v>121792</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E65">
+        <v>62</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>133971</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E66">
+        <v>63</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>147369</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E67">
+        <v>64</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>162106</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E68">
+        <v>65</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>178316</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E69">
+        <v>66</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:F111" si="1">INT(C$3*1.1^(E69-1))</f>
+        <v>196148</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E70">
+        <v>67</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>215763</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E71">
+        <v>68</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>237339</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E72">
+        <v>69</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>261073</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E73">
+        <v>70</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>287180</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E74">
+        <v>71</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>315898</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E75">
+        <v>72</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>347488</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <v>73</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>382237</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <v>74</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>420461</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E78">
+        <v>75</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>462507</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E79">
+        <v>76</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>508758</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E80">
+        <v>77</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>559633</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E81">
+        <v>78</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>615597</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E82">
+        <v>79</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>677157</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E83">
+        <v>80</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>744872</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E84">
+        <v>81</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>819360</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E85">
+        <v>82</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>901296</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E86">
+        <v>83</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>991425</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E87">
+        <v>84</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>1090568</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E88">
+        <v>85</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>1199625</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E89">
+        <v>86</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>1319587</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E90">
+        <v>87</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>1451546</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E91">
+        <v>88</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>1596701</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E92">
+        <v>89</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>1756371</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E93">
+        <v>90</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>1932008</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E94">
+        <v>91</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>2125209</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E95">
+        <v>92</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>2337729</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E96">
+        <v>93</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>2571502</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E97">
+        <v>94</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>2828653</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E98">
+        <v>95</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>3111518</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E99">
+        <v>96</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>3422670</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E100">
+        <v>97</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>3764937</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E101">
+        <v>98</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>4141431</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E102">
+        <v>99</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>4555574</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>5011131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/辅助表/理想状态的数值结构.xlsx
+++ b/辅助表/理想状态的数值结构.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表3" sheetId="4" r:id="rId2"/>
-    <sheet name="数据比率调整" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId3"/>
+    <sheet name="数据比率调整" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="269">
   <si>
     <t>属性分类</t>
     <rPh sb="0" eb="1">
@@ -3097,6 +3098,29 @@
       <t>duo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲率</t>
+    <rPh sb="0" eb="1">
+      <t>po'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲等级</t>
+    <rPh sb="0" eb="1">
+      <t>po'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力*（1-0.75*（（2*防御力/（防御方等级9）+（攻击方等级/（攻击方等级+防御方等级）））/3）</t>
   </si>
 </sst>
 </file>
@@ -3106,7 +3130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3146,6 +3170,52 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Bold"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFE26C09"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006FC0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3192,7 +3262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -3209,6 +3279,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3489,7 +3565,7 @@
   <dimension ref="A2:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3944,6 +4020,14 @@
         <v>258</v>
       </c>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+    </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J36" t="s">
         <v>61</v>
@@ -3952,21 +4036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
       <c r="F38" t="s">
         <v>246</v>
       </c>
@@ -3976,39 +4046,53 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
       <c r="K40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>256</v>
-      </c>
       <c r="K42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>248</v>
+      </c>
       <c r="K43" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="8:11" x14ac:dyDescent="0.15">
@@ -4044,6 +4128,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="92.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B16" s="18"/>
+    </row>
+    <row r="17" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B29" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:H151"/>
   <sheetViews>
@@ -4700,7 +4889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BF155"/>
   <sheetViews>

--- a/辅助表/理想状态的数值结构.xlsx
+++ b/辅助表/理想状态的数值结构.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -3564,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3573,8 +3573,8 @@
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4236,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4893,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BF155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
